--- a/grammar_3.xlsx
+++ b/grammar_3.xlsx
@@ -8,11 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ZJg+W2rlpmaY7PP3EG2dDbgwC8NXtAEQCTYMyThisIeOKBnTUpet3T+Im7IEJVVZgDeffEnnjoPbSLVgWnw4WA==" workbookSaltValue="dmgHXq6S5fUUMTLpJjKQCw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="grammar_3" sheetId="1" r:id="rId1"/>
+    <sheet name="grammar_3" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1438,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -3252,8 +3253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
